--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T17:09:55+00:00</t>
+    <t>2024-02-12T10:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T10:28:49+00:00</t>
+    <t>2024-02-12T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T15:35:25+00:00</t>
+    <t>2024-02-12T18:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T18:00:18+00:00</t>
+    <t>2024-02-15T16:51:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:51:45+00:00</t>
+    <t>2024-02-15T16:54:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:54:08+00:00</t>
+    <t>2024-02-16T09:13:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:13:22+00:00</t>
+    <t>2024-02-16T15:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
